--- a/Dati contagi nelle scuole/Regioni/Toscana/Contagio Personale Scolastico.xlsx
+++ b/Dati contagi nelle scuole/Regioni/Toscana/Contagio Personale Scolastico.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/Scientific_Papers/Personal/Work_in_progress/COVID-19/Davide Tosi/Orizzonte Scuola /Regioni/Toscana/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661ECA1D-091B-554F-84B9-C9440ACD8781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DED04F-65E4-784B-84E1-E166BBB26E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="500" windowWidth="28040" windowHeight="16120" activeTab="2" xr2:uid="{05320466-31DD-194F-829B-CEA1B7F07A6A}"/>
+    <workbookView xWindow="360" yWindow="500" windowWidth="28040" windowHeight="16000" activeTab="2" xr2:uid="{05320466-31DD-194F-829B-CEA1B7F07A6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Asl Sorveglianza" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="46">
   <si>
     <t>Asl Sorveglianza</t>
   </si>
@@ -168,6 +168,12 @@
   </si>
   <si>
     <t>10/01/2022 - 16/01/2022</t>
+  </si>
+  <si>
+    <t>17/01/2022 - 23/01/2022</t>
+  </si>
+  <si>
+    <t>ASL TA</t>
   </si>
 </sst>
 </file>
@@ -210,9 +216,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -527,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F638A62-F3EA-D945-B46D-4E93548F3519}">
-  <dimension ref="A1:C99"/>
+  <dimension ref="A1:C105"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96"/>
+    <sheetView topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1366,6 +1373,58 @@
         <v>152</v>
       </c>
     </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>44</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>44</v>
+      </c>
+      <c r="B102" t="s">
+        <v>2</v>
+      </c>
+      <c r="C102">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>44</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>44</v>
+      </c>
+      <c r="B104" t="s">
+        <v>45</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105">
+        <v>303</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1373,10 +1432,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C5F367F-B035-B74E-9EE5-553283CC9FEF}">
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1405,7 +1464,7 @@
       <c r="C2">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>42</v>
       </c>
     </row>
@@ -1416,9 +1475,12 @@
       <c r="C3">
         <v>5</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>42</v>
       </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -1430,7 +1492,7 @@
       <c r="C5">
         <v>5</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>250</v>
       </c>
     </row>
@@ -1441,9 +1503,12 @@
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>250</v>
       </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -1455,7 +1520,7 @@
       <c r="C8">
         <v>5</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>156</v>
       </c>
     </row>
@@ -1469,6 +1534,7 @@
       <c r="C9">
         <v>1</v>
       </c>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
@@ -1477,9 +1543,12 @@
       <c r="C10">
         <v>6</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>156</v>
       </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -1491,7 +1560,7 @@
       <c r="C12">
         <v>16</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>606</v>
       </c>
     </row>
@@ -1505,7 +1574,7 @@
       <c r="C13">
         <v>2</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1516,9 +1585,12 @@
       <c r="C14">
         <v>18</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>607</v>
       </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -1530,7 +1602,7 @@
       <c r="C16">
         <v>11</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>250</v>
       </c>
     </row>
@@ -1541,9 +1613,12 @@
       <c r="C17">
         <v>11</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>250</v>
       </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -1555,7 +1630,7 @@
       <c r="C19">
         <v>18</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>662</v>
       </c>
     </row>
@@ -1569,7 +1644,7 @@
       <c r="C20">
         <v>3</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>8</v>
       </c>
     </row>
@@ -1580,9 +1655,12 @@
       <c r="C21">
         <v>21</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>670</v>
       </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -1594,7 +1672,7 @@
       <c r="C23">
         <v>24</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>1085</v>
       </c>
     </row>
@@ -1605,9 +1683,12 @@
       <c r="C24">
         <v>24</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>1085</v>
       </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -1619,7 +1700,7 @@
       <c r="C26">
         <v>41</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <v>1551</v>
       </c>
     </row>
@@ -1633,7 +1714,7 @@
       <c r="C27">
         <v>4</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <v>92</v>
       </c>
     </row>
@@ -1644,9 +1725,12 @@
       <c r="C28">
         <v>45</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="2">
         <v>1643</v>
       </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -1658,7 +1742,7 @@
       <c r="C30">
         <v>55</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2">
         <v>1205</v>
       </c>
     </row>
@@ -1672,7 +1756,7 @@
       <c r="C31">
         <v>8</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="2">
         <v>49</v>
       </c>
     </row>
@@ -1683,9 +1767,12 @@
       <c r="C32">
         <v>63</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="2">
         <v>1254</v>
       </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
@@ -1697,7 +1784,7 @@
       <c r="C34">
         <v>44</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="2">
         <v>762</v>
       </c>
     </row>
@@ -1711,7 +1798,7 @@
       <c r="C35">
         <v>4</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="2">
         <v>10</v>
       </c>
     </row>
@@ -1722,9 +1809,12 @@
       <c r="C36">
         <v>48</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="2">
         <v>772</v>
       </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
@@ -1736,7 +1826,7 @@
       <c r="C38">
         <v>62</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="2">
         <v>1487</v>
       </c>
     </row>
@@ -1750,7 +1840,7 @@
       <c r="C39">
         <v>6</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="2">
         <v>9</v>
       </c>
     </row>
@@ -1761,9 +1851,12 @@
       <c r="C40">
         <v>68</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="2">
         <v>1496</v>
       </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
@@ -1775,7 +1868,7 @@
       <c r="C42">
         <v>82</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="2">
         <v>1764</v>
       </c>
     </row>
@@ -1789,7 +1882,7 @@
       <c r="C43">
         <v>11</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="2">
         <v>97</v>
       </c>
     </row>
@@ -1800,9 +1893,12 @@
       <c r="C44">
         <v>93</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="2">
         <v>1861</v>
       </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D45" s="2"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -1814,7 +1910,7 @@
       <c r="C46">
         <v>114</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="2">
         <v>2968</v>
       </c>
     </row>
@@ -1828,7 +1924,7 @@
       <c r="C47">
         <v>8</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="2">
         <v>207</v>
       </c>
     </row>
@@ -1839,9 +1935,12 @@
       <c r="C48">
         <v>122</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="2">
         <v>3175</v>
       </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D49" s="2"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
@@ -1853,7 +1952,7 @@
       <c r="C50">
         <v>103</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="2">
         <v>2849</v>
       </c>
     </row>
@@ -1867,7 +1966,7 @@
       <c r="C51">
         <v>9</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="2">
         <v>106</v>
       </c>
     </row>
@@ -1878,9 +1977,12 @@
       <c r="C52">
         <v>112</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="2">
         <v>2955</v>
       </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D53" s="2"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
@@ -1892,7 +1994,7 @@
       <c r="C54">
         <v>120</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="2">
         <v>2776</v>
       </c>
     </row>
@@ -1906,7 +2008,7 @@
       <c r="C55">
         <v>17</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="2">
         <v>131</v>
       </c>
     </row>
@@ -1917,9 +2019,12 @@
       <c r="C56">
         <v>137</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="2">
         <v>2907</v>
       </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D57" s="2"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
@@ -1931,7 +2036,7 @@
       <c r="C58">
         <v>146</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="2">
         <v>1882</v>
       </c>
     </row>
@@ -1945,7 +2050,7 @@
       <c r="C59">
         <v>16</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="2">
         <v>129</v>
       </c>
     </row>
@@ -1956,9 +2061,12 @@
       <c r="C60">
         <v>162</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="2">
         <v>2011</v>
       </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D61" s="2"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
@@ -1970,7 +2078,7 @@
       <c r="C62">
         <v>37</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="2">
         <v>72</v>
       </c>
     </row>
@@ -1984,7 +2092,7 @@
       <c r="C63">
         <v>4</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="2">
         <v>12</v>
       </c>
     </row>
@@ -1995,9 +2103,12 @@
       <c r="C64">
         <v>41</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="2">
         <v>84</v>
       </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D65" s="2"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
@@ -2009,7 +2120,7 @@
       <c r="C66">
         <v>41</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="2">
         <v>202</v>
       </c>
     </row>
@@ -2023,7 +2134,7 @@
       <c r="C67">
         <v>10</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="2">
         <v>33</v>
       </c>
     </row>
@@ -2034,9 +2145,12 @@
       <c r="C68">
         <v>51</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="2">
         <v>235</v>
       </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D69" s="2"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
@@ -2048,7 +2162,7 @@
       <c r="C70">
         <v>147</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="2">
         <v>2215</v>
       </c>
     </row>
@@ -2062,7 +2176,7 @@
       <c r="C71">
         <v>5</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="2">
         <v>57</v>
       </c>
     </row>
@@ -2073,8 +2187,50 @@
       <c r="C72">
         <v>152</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="2">
         <v>2272</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D73" s="2"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>44</v>
+      </c>
+      <c r="B74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74">
+        <v>285</v>
+      </c>
+      <c r="D74" s="2">
+        <v>3297</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>44</v>
+      </c>
+      <c r="B75" t="s">
+        <v>20</v>
+      </c>
+      <c r="C75">
+        <v>18</v>
+      </c>
+      <c r="D75" s="2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76">
+        <v>303</v>
+      </c>
+      <c r="D76" s="2">
+        <v>3459</v>
       </c>
     </row>
   </sheetData>
@@ -2084,10 +2240,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD544D6-2649-3047-BDC2-F750DEB5FCCC}">
-  <dimension ref="A1:D127"/>
+  <dimension ref="A1:D137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="D128" sqref="D128"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="D129" sqref="D129:D137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3618,6 +3774,132 @@
         <v>2</v>
       </c>
     </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>44</v>
+      </c>
+      <c r="B129" t="s">
+        <v>32</v>
+      </c>
+      <c r="C129" t="s">
+        <v>16</v>
+      </c>
+      <c r="D129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>44</v>
+      </c>
+      <c r="B130" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130" t="s">
+        <v>16</v>
+      </c>
+      <c r="D130">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>44</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C131" t="s">
+        <v>14</v>
+      </c>
+      <c r="D131">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>44</v>
+      </c>
+      <c r="B132" t="s">
+        <v>15</v>
+      </c>
+      <c r="C132" t="s">
+        <v>16</v>
+      </c>
+      <c r="D132">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>44</v>
+      </c>
+      <c r="B133" t="s">
+        <v>15</v>
+      </c>
+      <c r="C133" t="s">
+        <v>14</v>
+      </c>
+      <c r="D133">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>44</v>
+      </c>
+      <c r="B134" t="s">
+        <v>17</v>
+      </c>
+      <c r="C134" t="s">
+        <v>16</v>
+      </c>
+      <c r="D134">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>44</v>
+      </c>
+      <c r="B135" t="s">
+        <v>17</v>
+      </c>
+      <c r="C135" t="s">
+        <v>14</v>
+      </c>
+      <c r="D135">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>44</v>
+      </c>
+      <c r="B136" t="s">
+        <v>29</v>
+      </c>
+      <c r="C136" t="s">
+        <v>16</v>
+      </c>
+      <c r="D136">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>44</v>
+      </c>
+      <c r="B137" t="s">
+        <v>29</v>
+      </c>
+      <c r="C137" t="s">
+        <v>14</v>
+      </c>
+      <c r="D137">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dati contagi nelle scuole/Regioni/Toscana/Contagio Personale Scolastico.xlsx
+++ b/Dati contagi nelle scuole/Regioni/Toscana/Contagio Personale Scolastico.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/Scientific_Papers/Personal/Work_in_progress/COVID-19/Davide Tosi/Orizzonte Scuola /Regioni/Toscana/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/Scientific_Papers/Personal/Work_in_progress/COVID-19/Contagi nelle scuole/Regioni/Toscana/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DED04F-65E4-784B-84E1-E166BBB26E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C451030-0C9B-E346-8615-ABA5549C860A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="500" windowWidth="28040" windowHeight="16000" activeTab="2" xr2:uid="{05320466-31DD-194F-829B-CEA1B7F07A6A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="47">
   <si>
     <t>Asl Sorveglianza</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>ASL TA</t>
+  </si>
+  <si>
+    <t>24/01/2022 - 30/01/2022</t>
   </si>
 </sst>
 </file>
@@ -534,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F638A62-F3EA-D945-B46D-4E93548F3519}">
-  <dimension ref="A1:C105"/>
+  <dimension ref="A1:C110"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1425,6 +1428,44 @@
         <v>303</v>
       </c>
     </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>46</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>46</v>
+      </c>
+      <c r="B108" t="s">
+        <v>2</v>
+      </c>
+      <c r="C108">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>46</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B110" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1432,10 +1473,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C5F367F-B035-B74E-9EE5-553283CC9FEF}">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2233,6 +2274,45 @@
         <v>3459</v>
       </c>
     </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>46</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78">
+        <v>264</v>
+      </c>
+      <c r="D78" s="2">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>46</v>
+      </c>
+      <c r="B79" t="s">
+        <v>20</v>
+      </c>
+      <c r="C79">
+        <v>15</v>
+      </c>
+      <c r="D79" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80">
+        <v>279</v>
+      </c>
+      <c r="D80" s="2">
+        <v>2673</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2240,10 +2320,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD544D6-2649-3047-BDC2-F750DEB5FCCC}">
-  <dimension ref="A1:D137"/>
+  <dimension ref="A1:D148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="D129" sqref="D129:D137"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="D149" sqref="D149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3900,6 +3980,146 @@
         <v>2</v>
       </c>
     </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>46</v>
+      </c>
+      <c r="B139" t="s">
+        <v>32</v>
+      </c>
+      <c r="C139" t="s">
+        <v>16</v>
+      </c>
+      <c r="D139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>46</v>
+      </c>
+      <c r="B140" t="s">
+        <v>32</v>
+      </c>
+      <c r="C140" t="s">
+        <v>14</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>46</v>
+      </c>
+      <c r="B141" t="s">
+        <v>13</v>
+      </c>
+      <c r="C141" t="s">
+        <v>16</v>
+      </c>
+      <c r="D141">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>46</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C142" t="s">
+        <v>14</v>
+      </c>
+      <c r="D142">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>46</v>
+      </c>
+      <c r="B143" t="s">
+        <v>15</v>
+      </c>
+      <c r="C143" t="s">
+        <v>16</v>
+      </c>
+      <c r="D143">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>46</v>
+      </c>
+      <c r="B144" t="s">
+        <v>15</v>
+      </c>
+      <c r="C144" t="s">
+        <v>14</v>
+      </c>
+      <c r="D144">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>46</v>
+      </c>
+      <c r="B145" t="s">
+        <v>17</v>
+      </c>
+      <c r="C145" t="s">
+        <v>16</v>
+      </c>
+      <c r="D145">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>46</v>
+      </c>
+      <c r="B146" t="s">
+        <v>17</v>
+      </c>
+      <c r="C146" t="s">
+        <v>14</v>
+      </c>
+      <c r="D146">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>46</v>
+      </c>
+      <c r="B147" t="s">
+        <v>29</v>
+      </c>
+      <c r="C147" t="s">
+        <v>16</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>46</v>
+      </c>
+      <c r="B148" t="s">
+        <v>29</v>
+      </c>
+      <c r="C148" t="s">
+        <v>14</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dati contagi nelle scuole/Regioni/Toscana/Contagio Personale Scolastico.xlsx
+++ b/Dati contagi nelle scuole/Regioni/Toscana/Contagio Personale Scolastico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/Scientific_Papers/Personal/Work_in_progress/COVID-19/Contagi nelle scuole/Regioni/Toscana/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C451030-0C9B-E346-8615-ABA5549C860A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A303532-6F23-9E46-92B0-6DAF9A558D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="500" windowWidth="28040" windowHeight="16000" activeTab="2" xr2:uid="{05320466-31DD-194F-829B-CEA1B7F07A6A}"/>
+    <workbookView xWindow="360" yWindow="5720" windowWidth="10220" windowHeight="10780" activeTab="2" xr2:uid="{05320466-31DD-194F-829B-CEA1B7F07A6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Asl Sorveglianza" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="48">
   <si>
     <t>Asl Sorveglianza</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>24/01/2022 - 30/01/2022</t>
+  </si>
+  <si>
+    <t>31/01/2022 - 06/02/2022</t>
   </si>
 </sst>
 </file>
@@ -537,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F638A62-F3EA-D945-B46D-4E93548F3519}">
-  <dimension ref="A1:C110"/>
+  <dimension ref="A1:C115"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="C110" sqref="C110"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1466,6 +1469,47 @@
         <v>6</v>
       </c>
     </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>47</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>47</v>
+      </c>
+      <c r="B113" t="s">
+        <v>2</v>
+      </c>
+      <c r="C113">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>47</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B115" t="s">
+        <v>6</v>
+      </c>
+      <c r="C115">
+        <v>169</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1473,10 +1517,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C5F367F-B035-B74E-9EE5-553283CC9FEF}">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2313,6 +2357,45 @@
         <v>2673</v>
       </c>
     </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>47</v>
+      </c>
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82">
+        <v>161</v>
+      </c>
+      <c r="D82" s="2">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>47</v>
+      </c>
+      <c r="B83" t="s">
+        <v>20</v>
+      </c>
+      <c r="C83">
+        <v>8</v>
+      </c>
+      <c r="D83" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84">
+        <v>169</v>
+      </c>
+      <c r="D84" s="2">
+        <v>1310</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2320,10 +2403,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD544D6-2649-3047-BDC2-F750DEB5FCCC}">
-  <dimension ref="A1:D148"/>
+  <dimension ref="A1:D157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="D149" sqref="D149"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="A158" sqref="A158:D158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4120,6 +4203,118 @@
         <v>1</v>
       </c>
     </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>47</v>
+      </c>
+      <c r="B150" t="s">
+        <v>32</v>
+      </c>
+      <c r="C150" t="s">
+        <v>16</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>47</v>
+      </c>
+      <c r="B151" t="s">
+        <v>13</v>
+      </c>
+      <c r="C151" t="s">
+        <v>16</v>
+      </c>
+      <c r="D151">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>47</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C152" t="s">
+        <v>14</v>
+      </c>
+      <c r="D152">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>47</v>
+      </c>
+      <c r="B153" t="s">
+        <v>15</v>
+      </c>
+      <c r="C153" t="s">
+        <v>16</v>
+      </c>
+      <c r="D153">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>47</v>
+      </c>
+      <c r="B154" t="s">
+        <v>15</v>
+      </c>
+      <c r="C154" t="s">
+        <v>14</v>
+      </c>
+      <c r="D154">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>47</v>
+      </c>
+      <c r="B155" t="s">
+        <v>17</v>
+      </c>
+      <c r="C155" t="s">
+        <v>16</v>
+      </c>
+      <c r="D155">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>47</v>
+      </c>
+      <c r="B156" t="s">
+        <v>17</v>
+      </c>
+      <c r="C156" t="s">
+        <v>14</v>
+      </c>
+      <c r="D156">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>47</v>
+      </c>
+      <c r="B157" t="s">
+        <v>29</v>
+      </c>
+      <c r="C157" t="s">
+        <v>16</v>
+      </c>
+      <c r="D157">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dati contagi nelle scuole/Regioni/Toscana/Contagio Personale Scolastico.xlsx
+++ b/Dati contagi nelle scuole/Regioni/Toscana/Contagio Personale Scolastico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/Scientific_Papers/Personal/Work_in_progress/COVID-19/Contagi nelle scuole/Regioni/Toscana/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A303532-6F23-9E46-92B0-6DAF9A558D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3A7DA7-26FE-874A-ADE5-E2693CF3D1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="5720" windowWidth="10220" windowHeight="10780" activeTab="2" xr2:uid="{05320466-31DD-194F-829B-CEA1B7F07A6A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="49">
   <si>
     <t>Asl Sorveglianza</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>31/01/2022 - 06/02/2022</t>
+  </si>
+  <si>
+    <t>07/02/2022 - 13/02/2022</t>
   </si>
 </sst>
 </file>
@@ -540,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F638A62-F3EA-D945-B46D-4E93548F3519}">
-  <dimension ref="A1:C115"/>
+  <dimension ref="A1:C120"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A117" sqref="A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1510,6 +1513,47 @@
         <v>169</v>
       </c>
     </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>48</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1</v>
+      </c>
+      <c r="C117">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>48</v>
+      </c>
+      <c r="B118" t="s">
+        <v>2</v>
+      </c>
+      <c r="C118">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>48</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
+        <v>6</v>
+      </c>
+      <c r="C120">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1517,10 +1561,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C5F367F-B035-B74E-9EE5-553283CC9FEF}">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2396,6 +2440,42 @@
         <v>1310</v>
       </c>
     </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>48</v>
+      </c>
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86">
+        <v>72</v>
+      </c>
+      <c r="D86" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>48</v>
+      </c>
+      <c r="B87" t="s">
+        <v>20</v>
+      </c>
+      <c r="C87">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88">
+        <v>79</v>
+      </c>
+      <c r="D88" s="2">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2403,10 +2483,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD544D6-2649-3047-BDC2-F750DEB5FCCC}">
-  <dimension ref="A1:D157"/>
+  <dimension ref="A1:D166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="A158" sqref="A158:D158"/>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="D167" sqref="D167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4315,6 +4395,118 @@
         <v>3</v>
       </c>
     </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>48</v>
+      </c>
+      <c r="B159" t="s">
+        <v>13</v>
+      </c>
+      <c r="C159" t="s">
+        <v>16</v>
+      </c>
+      <c r="D159">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>48</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C160" t="s">
+        <v>14</v>
+      </c>
+      <c r="D160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>48</v>
+      </c>
+      <c r="B161" t="s">
+        <v>15</v>
+      </c>
+      <c r="C161" t="s">
+        <v>16</v>
+      </c>
+      <c r="D161">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>48</v>
+      </c>
+      <c r="B162" t="s">
+        <v>15</v>
+      </c>
+      <c r="C162" t="s">
+        <v>14</v>
+      </c>
+      <c r="D162">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>48</v>
+      </c>
+      <c r="B163" t="s">
+        <v>17</v>
+      </c>
+      <c r="C163" t="s">
+        <v>16</v>
+      </c>
+      <c r="D163">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>48</v>
+      </c>
+      <c r="B164" t="s">
+        <v>17</v>
+      </c>
+      <c r="C164" t="s">
+        <v>14</v>
+      </c>
+      <c r="D164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>48</v>
+      </c>
+      <c r="B165" t="s">
+        <v>29</v>
+      </c>
+      <c r="C165" t="s">
+        <v>16</v>
+      </c>
+      <c r="D165">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>48</v>
+      </c>
+      <c r="B166" t="s">
+        <v>29</v>
+      </c>
+      <c r="C166" t="s">
+        <v>14</v>
+      </c>
+      <c r="D166">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dati contagi nelle scuole/Regioni/Toscana/Contagio Personale Scolastico.xlsx
+++ b/Dati contagi nelle scuole/Regioni/Toscana/Contagio Personale Scolastico.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/Scientific_Papers/Personal/Work_in_progress/COVID-19/Contagi nelle scuole/Regioni/Toscana/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3A7DA7-26FE-874A-ADE5-E2693CF3D1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C979A7F-B1E6-DA4D-B782-E51FFDB2D85F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="5720" windowWidth="10220" windowHeight="10780" activeTab="2" xr2:uid="{05320466-31DD-194F-829B-CEA1B7F07A6A}"/>
+    <workbookView xWindow="18000" yWindow="2840" windowWidth="10220" windowHeight="10780" activeTab="2" xr2:uid="{05320466-31DD-194F-829B-CEA1B7F07A6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Asl Sorveglianza" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="50">
   <si>
     <t>Asl Sorveglianza</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>07/02/2022 - 13/02/2022</t>
+  </si>
+  <si>
+    <t>14/02/2022 - 20/02/2022</t>
   </si>
 </sst>
 </file>
@@ -543,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F638A62-F3EA-D945-B46D-4E93548F3519}">
-  <dimension ref="A1:C120"/>
+  <dimension ref="A1:C125"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A117" sqref="A117"/>
+    <sheetView topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1554,6 +1557,47 @@
         <v>79</v>
       </c>
     </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>49</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>49</v>
+      </c>
+      <c r="B123" t="s">
+        <v>2</v>
+      </c>
+      <c r="C123">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>49</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B125" t="s">
+        <v>6</v>
+      </c>
+      <c r="C125">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1561,10 +1605,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C5F367F-B035-B74E-9EE5-553283CC9FEF}">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2476,6 +2520,42 @@
         <v>2</v>
       </c>
     </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>49</v>
+      </c>
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90">
+        <v>73</v>
+      </c>
+      <c r="D90">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>49</v>
+      </c>
+      <c r="B91" t="s">
+        <v>20</v>
+      </c>
+      <c r="C91">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92">
+        <v>80</v>
+      </c>
+      <c r="D92">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2483,10 +2563,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD544D6-2649-3047-BDC2-F750DEB5FCCC}">
-  <dimension ref="A1:D166"/>
+  <dimension ref="A1:D175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="D167" sqref="D167"/>
+    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="D175" sqref="D175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4507,6 +4587,118 @@
         <v>1</v>
       </c>
     </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>49</v>
+      </c>
+      <c r="B168" t="s">
+        <v>13</v>
+      </c>
+      <c r="C168" t="s">
+        <v>16</v>
+      </c>
+      <c r="D168">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>49</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C169" t="s">
+        <v>14</v>
+      </c>
+      <c r="D169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>49</v>
+      </c>
+      <c r="B170" t="s">
+        <v>15</v>
+      </c>
+      <c r="C170" t="s">
+        <v>16</v>
+      </c>
+      <c r="D170">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>49</v>
+      </c>
+      <c r="B171" t="s">
+        <v>15</v>
+      </c>
+      <c r="C171" t="s">
+        <v>14</v>
+      </c>
+      <c r="D171">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>49</v>
+      </c>
+      <c r="B172" t="s">
+        <v>17</v>
+      </c>
+      <c r="C172" t="s">
+        <v>16</v>
+      </c>
+      <c r="D172">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>49</v>
+      </c>
+      <c r="B173" t="s">
+        <v>17</v>
+      </c>
+      <c r="C173" t="s">
+        <v>14</v>
+      </c>
+      <c r="D173">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>49</v>
+      </c>
+      <c r="B174" t="s">
+        <v>29</v>
+      </c>
+      <c r="C174" t="s">
+        <v>16</v>
+      </c>
+      <c r="D174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>49</v>
+      </c>
+      <c r="B175" t="s">
+        <v>29</v>
+      </c>
+      <c r="C175" t="s">
+        <v>14</v>
+      </c>
+      <c r="D175">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
